--- a/东奥会计专业/税务/开票数据-速率.xlsx
+++ b/东奥会计专业/税务/开票数据-速率.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>开票方</t>
   </si>
@@ -186,14 +186,18 @@
     <t>安徽省合肥市肥东县撮镇镇新华路与东华路交口合肥传话信实公路港4楼  时海盟  15349854427</t>
   </si>
   <si>
-    <t>合计</t>
+    <t>1月揽件不达标二级扣款</t>
+  </si>
+  <si>
+    <t>1月二级面单返利扣款</t>
+  </si>
+  <si>
+    <t>二级系统使用费</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1月揽件不达标二级扣款</t>
-  </si>
-  <si>
-    <t>1月二级面单返利扣款</t>
+    <t>二级网络建设费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -425,6 +429,30 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -433,30 +461,6 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -762,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -801,7 +805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
@@ -819,7 +823,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
         <v>5</v>
@@ -840,7 +844,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="11" t="s">
         <v>5</v>
@@ -861,7 +865,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="11" t="s">
         <v>5</v>
@@ -882,7 +886,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
         <v>5</v>
@@ -903,7 +907,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
@@ -918,7 +922,7 @@
       <c r="F9" s="13">
         <v>3975.49</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="32" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="15">
@@ -934,7 +938,7 @@
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
     </row>
-    <row r="10" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
@@ -949,7 +953,7 @@
       <c r="F10" s="13">
         <v>1876.39</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="33"/>
       <c r="I10" s="15">
         <v>-3975.49</v>
       </c>
@@ -963,7 +967,7 @@
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
     </row>
-    <row r="11" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
@@ -994,7 +998,7 @@
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="11"/>
       <c r="C12" s="17" t="s">
@@ -1025,7 +1029,7 @@
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
     </row>
-    <row r="13" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="11"/>
       <c r="C13" s="17" t="s">
@@ -1056,7 +1060,7 @@
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
     </row>
-    <row r="14" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="11"/>
       <c r="C14" s="17" t="s">
@@ -1071,7 +1075,7 @@
       <c r="F14" s="13">
         <v>2308.34</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="20"/>
@@ -1100,7 +1104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="11"/>
       <c r="C15" s="17" t="s">
@@ -1115,7 +1119,7 @@
       <c r="F15" s="13">
         <v>4011.89</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="20" t="s">
         <v>25</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>2308.34</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="11"/>
       <c r="C16" s="17" t="s">
@@ -1182,20 +1186,20 @@
         <v>4011.89</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="29">
-        <v>0.06</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31" t="s">
+      <c r="D17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0.06</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="20" t="s">
@@ -1216,7 +1220,7 @@
         <v>88823.39</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="11"/>
       <c r="C18" s="17" t="s">
@@ -1237,20 +1241,24 @@
       <c r="H18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="29" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="L18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
+      <c r="M18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>37</v>
+      </c>
       <c r="O18" s="22"/>
     </row>
     <row r="19" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1266,29 +1274,30 @@
         <v>0.06</v>
       </c>
       <c r="F19" s="13">
-        <v>4440.84</v>
-      </c>
-      <c r="G19" s="24" t="s">
+        <v>14418.84</v>
+      </c>
+      <c r="G19" s="32" t="s">
         <v>35</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="13">
-        <v>1744.99</v>
-      </c>
-      <c r="J19" s="34">
+        <v>1722.99</v>
+      </c>
+      <c r="J19" s="31">
         <v>2370</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="31">
         <v>325.84999999999997</v>
       </c>
-      <c r="L19" s="34">
-        <f>I19+J19+K19</f>
-        <v>4440.84</v>
-      </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31">
+        <v>10000</v>
+      </c>
+      <c r="N19" s="31">
+        <v>14418.84</v>
+      </c>
       <c r="O19" s="22"/>
     </row>
     <row r="20" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1304,27 +1313,28 @@
         <v>0.06</v>
       </c>
       <c r="F20" s="13">
-        <v>8257.010000000002</v>
-      </c>
-      <c r="G20" s="26"/>
+        <v>18212.010000000002</v>
+      </c>
+      <c r="G20" s="34"/>
       <c r="H20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="13">
-        <v>1580.31</v>
-      </c>
-      <c r="J20" s="34">
+        <v>1535.31</v>
+      </c>
+      <c r="J20" s="31">
         <v>6246.5000000000009</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="31">
         <v>430.2</v>
       </c>
-      <c r="L20" s="34">
-        <f t="shared" ref="L20:L21" si="1">I20+J20+K20</f>
-        <v>8257.010000000002</v>
-      </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31">
+        <v>10000</v>
+      </c>
+      <c r="N20" s="31">
+        <v>18212.010000000002</v>
+      </c>
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1340,7 +1350,7 @@
         <v>0.06</v>
       </c>
       <c r="F21" s="13">
-        <v>175984.32</v>
+        <v>187779.32</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>36</v>
@@ -1349,18 +1359,21 @@
         <v>19</v>
       </c>
       <c r="I21" s="13">
-        <v>174484.32</v>
-      </c>
-      <c r="J21" s="34">
+        <v>173879.32</v>
+      </c>
+      <c r="J21" s="31">
         <v>1500</v>
       </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34">
-        <f t="shared" si="1"/>
-        <v>175984.32</v>
-      </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31">
+        <v>2400</v>
+      </c>
+      <c r="M21" s="31">
+        <v>10000</v>
+      </c>
+      <c r="N21" s="31">
+        <v>187779.32</v>
+      </c>
       <c r="O21" s="22"/>
     </row>
     <row r="22" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1371,13 +1384,19 @@
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
+      <c r="H22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13">
+        <v>3500</v>
+      </c>
+      <c r="M22" s="13"/>
+      <c r="N22" s="31">
+        <v>3500</v>
+      </c>
       <c r="O22" s="22"/>
     </row>
     <row r="23" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1388,13 +1407,13 @@
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
       <c r="O23" s="22"/>
     </row>
   </sheetData>
